--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_32.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2603685.225926221</v>
+        <v>2603298.177362964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>248264.730014872</v>
+        <v>248264.7300148726</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736555</v>
+        <v>504792.029273655</v>
       </c>
     </row>
     <row r="9">
@@ -671,13 +671,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
-        <v>91.65650309414211</v>
+        <v>99.28286135017444</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
@@ -744,7 +744,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>133.3468600696244</v>
@@ -756,7 +756,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>67.69846245683961</v>
+        <v>50.40340496236617</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
         <v>216.3098444776729</v>
@@ -798,13 +798,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.75143835293328</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.66896515812821</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>257.7395212081473</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>410.0096787829314</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G5" t="n">
-        <v>411.9429466803539</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
-        <v>103.8947567083897</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>223.98725754369</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>93.15429516813494</v>
       </c>
       <c r="G6" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>216.3098444776729</v>
@@ -1038,10 +1038,10 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X6" t="n">
-        <v>144.8650699421619</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.77333445464502</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>243.4438153256983</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>126.0224895306994</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>358.2379874706535</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
@@ -1148,10 +1148,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H8" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>118.1202051047698</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>74.25201978836913</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>186.7982527956746</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>12.59665167322035</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>268.6107013963115</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.5795132747226</v>
+        <v>7.617072207364571</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508318</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
-        <v>95.12707265375585</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327662</v>
@@ -1436,7 +1436,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="12">
@@ -1455,7 +1455,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>124.2912761025077</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -1467,7 +1467,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I12" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,7 +1500,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
-        <v>97.83333659764565</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
         <v>216.3098444776729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C13" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808629</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761995</v>
       </c>
       <c r="H13" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1591,7 +1591,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X13" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y13" t="n">
         <v>106.3846417114369</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C14" t="n">
-        <v>264.6842555723119</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>190.3426913247349</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721451</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T14" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V14" t="n">
         <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655128</v>
+        <v>240.5014880704674</v>
       </c>
       <c r="Y14" t="n">
         <v>276.1762713617116</v>
@@ -1689,7 +1689,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>116.1837968985002</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -1701,10 +1701,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>9.973562680740013</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I15" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E16" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F16" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1828,7 +1828,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y16" t="n">
         <v>106.3846417114369</v>
@@ -1856,7 +1856,7 @@
         <v>238.9206519796394</v>
       </c>
       <c r="G17" t="n">
-        <v>240.8539198770619</v>
+        <v>240.8539198770617</v>
       </c>
       <c r="H17" t="n">
         <v>158.4040348553719</v>
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>44.38194387159498</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1974,7 +1974,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>97.83333659764565</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
         <v>216.3098444776729</v>
@@ -2163,7 +2163,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>116.1837968985002</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>38.47629877891934</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>38.47629877891892</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>77.67202513757917</v>
       </c>
       <c r="I24" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>298.5127811721451</v>
@@ -2573,7 +2573,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.6588612950832</v>
+        <v>34.37070962869583</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774083</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>83.81832603934041</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
         <v>220.1793158548093</v>
@@ -2618,7 +2618,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y26" t="n">
         <v>276.1762713617116</v>
@@ -2643,7 +2643,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>118.7813687841208</v>
       </c>
       <c r="G27" t="n">
         <v>127.4412149769483</v>
@@ -2652,7 +2652,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133605</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932727</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472776</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230615</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E28" t="n">
-        <v>37.0587585880856</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F28" t="n">
-        <v>37.5256829162719</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761974</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031016</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513951</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.59639806355682</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214056</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2776,7 +2776,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
         <v>106.3846417114369</v>
@@ -2795,13 +2795,13 @@
         <v>264.6842555723119</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
         <v>277.4076971867455</v>
       </c>
       <c r="F29" t="n">
-        <v>296.5795132747226</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>298.5127811721451</v>
@@ -2810,7 +2810,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508318</v>
+        <v>34.37070962869588</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2858,7 +2858,7 @@
         <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
-        <v>211.9741660374414</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133605</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808558</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.367213975254</v>
+        <v>248.3672139752539</v>
       </c>
       <c r="C32" t="n">
         <v>236.3785309329357</v>
       </c>
       <c r="D32" t="n">
-        <v>227.3598349774637</v>
+        <v>227.3598349774636</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1019725473693</v>
+        <v>249.1019725473692</v>
       </c>
       <c r="F32" t="n">
         <v>268.2737886353464</v>
@@ -3044,10 +3044,10 @@
         <v>270.2070565327689</v>
       </c>
       <c r="H32" t="n">
-        <v>187.7571715110789</v>
+        <v>187.7571715110788</v>
       </c>
       <c r="I32" t="n">
-        <v>29.353136655707</v>
+        <v>29.35313665570692</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.62079546836463</v>
+        <v>43.62079546836455</v>
       </c>
       <c r="T32" t="n">
-        <v>80.37946665871399</v>
+        <v>80.37946665871391</v>
       </c>
       <c r="U32" t="n">
-        <v>110.600592775561</v>
+        <v>110.6005927755609</v>
       </c>
       <c r="V32" t="n">
-        <v>191.8735912154331</v>
+        <v>191.873591215433</v>
       </c>
       <c r="W32" t="n">
-        <v>217.17369069339</v>
+        <v>217.1736906933899</v>
       </c>
       <c r="X32" t="n">
         <v>236.4739489261366</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.8705467223354</v>
+        <v>247.8705467223353</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>130.9922385581941</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -3123,7 +3123,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326555</v>
       </c>
       <c r="I33" t="n">
         <v>67.69846245683961</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>39.98392484995108</v>
+        <v>39.98392484995099</v>
       </c>
       <c r="C34" t="n">
-        <v>26.18391969535156</v>
+        <v>26.18391969535148</v>
       </c>
       <c r="D34" t="n">
-        <v>9.805284092929952</v>
+        <v>9.805284092929867</v>
       </c>
       <c r="E34" t="n">
-        <v>8.753033948709401</v>
+        <v>8.753033948709316</v>
       </c>
       <c r="F34" t="n">
-        <v>9.21995827689571</v>
+        <v>9.219958276895625</v>
       </c>
       <c r="G34" t="n">
-        <v>25.49466099824355</v>
+        <v>25.49466099824346</v>
       </c>
       <c r="H34" t="n">
-        <v>16.04302862093397</v>
+        <v>16.04302862093388</v>
       </c>
       <c r="I34" t="n">
-        <v>1.025123805763315</v>
+        <v>1.025123805763229</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.290673424180625</v>
+        <v>6.29067342418054</v>
       </c>
       <c r="S34" t="n">
-        <v>69.83677482276437</v>
+        <v>69.83677482276428</v>
       </c>
       <c r="T34" t="n">
-        <v>89.11127350489301</v>
+        <v>89.11127350489292</v>
       </c>
       <c r="U34" t="n">
-        <v>142.5824469682062</v>
+        <v>142.5824469682061</v>
       </c>
       <c r="V34" t="n">
-        <v>116.3920612495767</v>
+        <v>116.3920612495766</v>
       </c>
       <c r="W34" t="n">
-        <v>141.5589473201899</v>
+        <v>141.5589473201898</v>
       </c>
       <c r="X34" t="n">
-        <v>87.20404931599305</v>
+        <v>87.20404931599296</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.07891707206073</v>
+        <v>78.07891707206065</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C35" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D35" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E35" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F35" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G35" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H35" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I35" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T35" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U35" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V35" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W35" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X35" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y35" t="n">
         <v>223.4773717274634</v>
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133636</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C37" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T37" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U37" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V37" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W37" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X37" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3503,25 @@
         <v>223.974038980382</v>
       </c>
       <c r="C38" t="n">
-        <v>211.9853559380638</v>
+        <v>211.9853559380637</v>
       </c>
       <c r="D38" t="n">
-        <v>202.9666599825918</v>
+        <v>202.9666599825917</v>
       </c>
       <c r="E38" t="n">
         <v>224.7087975524973</v>
       </c>
       <c r="F38" t="n">
-        <v>243.8806136404745</v>
+        <v>243.8806136404744</v>
       </c>
       <c r="G38" t="n">
-        <v>245.813881537897</v>
+        <v>245.8138815378969</v>
       </c>
       <c r="H38" t="n">
         <v>163.3639965162069</v>
       </c>
       <c r="I38" t="n">
-        <v>4.959961660835035</v>
+        <v>4.959961660835006</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.22762047349266</v>
+        <v>19.22762047349264</v>
       </c>
       <c r="T38" t="n">
-        <v>55.98629166384202</v>
+        <v>55.986291663842</v>
       </c>
       <c r="U38" t="n">
-        <v>86.20741778068898</v>
+        <v>86.20741778068896</v>
       </c>
       <c r="V38" t="n">
-        <v>167.4804162205612</v>
+        <v>167.4804162205611</v>
       </c>
       <c r="W38" t="n">
-        <v>192.7805156985181</v>
+        <v>192.780515698518</v>
       </c>
       <c r="X38" t="n">
-        <v>212.0807739312647</v>
+        <v>212.0807739312646</v>
       </c>
       <c r="Y38" t="n">
         <v>223.4773717274634</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326566</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.59074985507911</v>
+        <v>15.59074985507908</v>
       </c>
       <c r="C40" t="n">
-        <v>1.790744700479593</v>
+        <v>1.790744700479564</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.101486003371576</v>
+        <v>1.101486003371548</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>45.4435998278924</v>
+        <v>45.44359982789237</v>
       </c>
       <c r="T40" t="n">
-        <v>64.71809851002104</v>
+        <v>64.71809851002101</v>
       </c>
       <c r="U40" t="n">
         <v>118.1892719733342</v>
       </c>
       <c r="V40" t="n">
-        <v>91.9988862547047</v>
+        <v>91.99888625470467</v>
       </c>
       <c r="W40" t="n">
-        <v>117.165772325318</v>
+        <v>117.1657723253179</v>
       </c>
       <c r="X40" t="n">
-        <v>62.81087432112108</v>
+        <v>62.81087432112105</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.68574207718876</v>
+        <v>53.68574207718873</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.5454454620315</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C41" t="n">
-        <v>217.5567624197132</v>
+        <v>217.5567624197131</v>
       </c>
       <c r="D41" t="n">
-        <v>186.5246673849902</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E41" t="n">
-        <v>230.2802040341467</v>
+        <v>230.2802040341466</v>
       </c>
       <c r="F41" t="n">
-        <v>249.4520201221239</v>
+        <v>249.4520201221237</v>
       </c>
       <c r="G41" t="n">
-        <v>251.3852880195464</v>
+        <v>251.3852880195463</v>
       </c>
       <c r="H41" t="n">
-        <v>168.9354029978564</v>
+        <v>95.89567391560067</v>
       </c>
       <c r="I41" t="n">
-        <v>10.5313681424845</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.79902695514212</v>
+        <v>24.79902695514195</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>61.55769814549132</v>
       </c>
       <c r="U41" t="n">
-        <v>91.77882426233845</v>
+        <v>91.77882426233828</v>
       </c>
       <c r="V41" t="n">
-        <v>173.0518227022106</v>
+        <v>173.0518227022104</v>
       </c>
       <c r="W41" t="n">
-        <v>198.3519221801675</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X41" t="n">
-        <v>217.6521804129141</v>
+        <v>217.652180412914</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.0487782091129</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.16215633672857</v>
+        <v>21.1621563367284</v>
       </c>
       <c r="C43" t="n">
-        <v>7.362151182129054</v>
+        <v>7.362151182128883</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.672892485021038</v>
+        <v>6.672892485020867</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.01500630954186</v>
+        <v>51.01500630954169</v>
       </c>
       <c r="T43" t="n">
-        <v>70.2895049916705</v>
+        <v>70.28950499167033</v>
       </c>
       <c r="U43" t="n">
-        <v>123.7606784549837</v>
+        <v>123.7606784549835</v>
       </c>
       <c r="V43" t="n">
-        <v>97.57029273635416</v>
+        <v>97.57029273635399</v>
       </c>
       <c r="W43" t="n">
-        <v>122.7371788069674</v>
+        <v>122.7371788069673</v>
       </c>
       <c r="X43" t="n">
-        <v>68.38228080277054</v>
+        <v>68.38228080277037</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.25714855883822</v>
+        <v>59.25714855883805</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.5454454620315</v>
+        <v>229.5454454620313</v>
       </c>
       <c r="C44" t="n">
-        <v>217.5567624197132</v>
+        <v>217.5567624197131</v>
       </c>
       <c r="D44" t="n">
-        <v>208.5380664642412</v>
+        <v>208.538066464241</v>
       </c>
       <c r="E44" t="n">
-        <v>230.2802040341467</v>
+        <v>230.2802040341466</v>
       </c>
       <c r="F44" t="n">
-        <v>249.4520201221239</v>
+        <v>249.4520201221237</v>
       </c>
       <c r="G44" t="n">
-        <v>251.3852880195464</v>
+        <v>251.3852880195463</v>
       </c>
       <c r="H44" t="n">
-        <v>168.9354029978564</v>
+        <v>85.36430577311694</v>
       </c>
       <c r="I44" t="n">
-        <v>10.5313681424845</v>
+        <v>10.53136814248433</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>24.79902695514195</v>
       </c>
       <c r="T44" t="n">
-        <v>61.55769814549149</v>
+        <v>61.55769814549132</v>
       </c>
       <c r="U44" t="n">
-        <v>91.77882426233845</v>
+        <v>91.77882426233828</v>
       </c>
       <c r="V44" t="n">
-        <v>114.2797524326106</v>
+        <v>173.0518227022104</v>
       </c>
       <c r="W44" t="n">
-        <v>198.3519221801675</v>
+        <v>198.3519221801673</v>
       </c>
       <c r="X44" t="n">
-        <v>217.6521804129141</v>
+        <v>217.652180412914</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.0487782091129</v>
+        <v>229.0487782091127</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.16215633672857</v>
+        <v>21.1621563367284</v>
       </c>
       <c r="C46" t="n">
-        <v>7.362151182129054</v>
+        <v>7.362151182128883</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.672892485021038</v>
+        <v>6.672892485020867</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.01500630954186</v>
+        <v>51.01500630954169</v>
       </c>
       <c r="T46" t="n">
-        <v>70.2895049916705</v>
+        <v>70.28950499167033</v>
       </c>
       <c r="U46" t="n">
-        <v>123.7606784549837</v>
+        <v>123.7606784549835</v>
       </c>
       <c r="V46" t="n">
-        <v>97.57029273635416</v>
+        <v>97.57029273635399</v>
       </c>
       <c r="W46" t="n">
-        <v>122.7371788069674</v>
+        <v>122.7371788069673</v>
       </c>
       <c r="X46" t="n">
-        <v>68.38228080277054</v>
+        <v>68.38228080277037</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.25714855883822</v>
+        <v>59.25714855883805</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="C2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="D2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="E2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="F2" t="n">
-        <v>144.5114718155008</v>
+        <v>889.076542436406</v>
       </c>
       <c r="G2" t="n">
-        <v>132.4478893100929</v>
+        <v>472.972555890594</v>
       </c>
       <c r="H2" t="n">
-        <v>132.4478893100929</v>
+        <v>140.1512814879033</v>
       </c>
       <c r="I2" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J2" t="n">
         <v>111.8641072251792</v>
@@ -4352,28 +4352,28 @@
         <v>1993.278147618678</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114531</v>
       </c>
       <c r="S2" t="n">
         <v>1715.410885744885</v>
       </c>
       <c r="T2" t="n">
-        <v>1491.051939475897</v>
+        <v>1491.051939475896</v>
       </c>
       <c r="U2" t="n">
-        <v>1236.166603189891</v>
+        <v>1236.16660318989</v>
       </c>
       <c r="V2" t="n">
-        <v>899.1873290858321</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="W2" t="n">
-        <v>536.6523989434331</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="X2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
       <c r="Y2" t="n">
-        <v>154.6222584649265</v>
+        <v>899.1873290858316</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>919.1783234544176</v>
+        <v>754.6805584663662</v>
       </c>
       <c r="C3" t="n">
-        <v>757.4746506953724</v>
+        <v>592.9768857073209</v>
       </c>
       <c r="D3" t="n">
-        <v>618.6360136855844</v>
+        <v>454.138248697533</v>
       </c>
       <c r="E3" t="n">
-        <v>471.6080037424556</v>
+        <v>454.138248697533</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9142056923299</v>
+        <v>319.4444506474073</v>
       </c>
       <c r="G3" t="n">
-        <v>208.1857057156145</v>
+        <v>190.7159506706919</v>
       </c>
       <c r="H3" t="n">
-        <v>108.2478482623126</v>
+        <v>90.77809321738989</v>
       </c>
       <c r="I3" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J3" t="n">
         <v>100.1197094854797</v>
@@ -4416,43 +4416,43 @@
         <v>695.4321072157841</v>
       </c>
       <c r="M3" t="n">
-        <v>1180.46546072601</v>
+        <v>695.4321072157841</v>
       </c>
       <c r="N3" t="n">
-        <v>1673.801802261633</v>
+        <v>1188.768448751407</v>
       </c>
       <c r="O3" t="n">
-        <v>1993.278147618678</v>
+        <v>1580.968399535558</v>
       </c>
       <c r="P3" t="n">
-        <v>1993.278147618678</v>
+        <v>1835.506517833083</v>
       </c>
       <c r="Q3" t="n">
         <v>1993.278147618678</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.493878713624</v>
+        <v>1933.493878713623</v>
       </c>
       <c r="S3" t="n">
         <v>1780.694391726364</v>
       </c>
       <c r="T3" t="n">
-        <v>1780.694391726364</v>
+        <v>1592.009287892349</v>
       </c>
       <c r="U3" t="n">
-        <v>1562.199599324674</v>
+        <v>1373.514495490659</v>
       </c>
       <c r="V3" t="n">
-        <v>1333.803976773008</v>
+        <v>1145.118872938993</v>
       </c>
       <c r="W3" t="n">
-        <v>1092.488108006318</v>
+        <v>1145.118872938993</v>
       </c>
       <c r="X3" t="n">
-        <v>1078.597766235679</v>
+        <v>947.2018848167874</v>
       </c>
       <c r="Y3" t="n">
-        <v>1078.597766235679</v>
+        <v>754.6805584663662</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.2150456019936</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="C4" t="n">
-        <v>358.2150456019936</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="D4" t="n">
-        <v>205.1431524297563</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="E4" t="n">
-        <v>192.3462179265965</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="F4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="G4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="H4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="I4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J4" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46975069701698</v>
+        <v>73.46975069701696</v>
       </c>
       <c r="L4" t="n">
         <v>174.0768300972765</v>
@@ -4507,31 +4507,31 @@
         <v>571.924808198306</v>
       </c>
       <c r="Q4" t="n">
-        <v>571.924808198306</v>
+        <v>533.387466851995</v>
       </c>
       <c r="R4" t="n">
-        <v>571.924808198306</v>
+        <v>533.387466851995</v>
       </c>
       <c r="S4" t="n">
-        <v>358.2150456019936</v>
+        <v>533.387466851995</v>
       </c>
       <c r="T4" t="n">
-        <v>358.2150456019936</v>
+        <v>300.2085136676739</v>
       </c>
       <c r="U4" t="n">
-        <v>358.2150456019936</v>
+        <v>300.2085136676739</v>
       </c>
       <c r="V4" t="n">
-        <v>358.2150456019936</v>
+        <v>300.2085136676739</v>
       </c>
       <c r="W4" t="n">
-        <v>358.2150456019936</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="X4" t="n">
-        <v>358.2150456019936</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="Y4" t="n">
-        <v>358.2150456019936</v>
+        <v>39.86556295237355</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1797.695662419188</v>
+        <v>789.646926403791</v>
       </c>
       <c r="C5" t="n">
-        <v>1415.761903751996</v>
+        <v>789.646926403791</v>
       </c>
       <c r="D5" t="n">
-        <v>1042.937938979219</v>
+        <v>789.646926403791</v>
       </c>
       <c r="E5" t="n">
-        <v>1042.937938979219</v>
+        <v>394.8612065098979</v>
       </c>
       <c r="F5" t="n">
-        <v>628.7867482893896</v>
+        <v>384.7504198604723</v>
       </c>
       <c r="G5" t="n">
-        <v>212.6827617435775</v>
+        <v>372.6868373550643</v>
       </c>
       <c r="H5" t="n">
-        <v>212.6827617435775</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="I5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J5" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="K5" t="n">
         <v>280.0059349971563</v>
@@ -4583,34 +4583,34 @@
         <v>1704.46641749574</v>
       </c>
       <c r="P5" t="n">
-        <v>1932.623313951793</v>
+        <v>1898.845893932141</v>
       </c>
       <c r="Q5" t="n">
         <v>1993.278147618678</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.639861114532</v>
+        <v>1902.639861114531</v>
       </c>
       <c r="S5" t="n">
-        <v>1902.639861114532</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="T5" t="n">
-        <v>1797.695662419188</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="U5" t="n">
-        <v>1797.695662419188</v>
+        <v>1715.410885744885</v>
       </c>
       <c r="V5" t="n">
-        <v>1797.695662419188</v>
+        <v>1378.431611640826</v>
       </c>
       <c r="W5" t="n">
-        <v>1797.695662419188</v>
+        <v>1015.896681498427</v>
       </c>
       <c r="X5" t="n">
-        <v>1797.695662419188</v>
+        <v>1015.896681498427</v>
       </c>
       <c r="Y5" t="n">
-        <v>1797.695662419188</v>
+        <v>789.646926403791</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757.4746506953724</v>
+        <v>542.6303507524303</v>
       </c>
       <c r="C6" t="n">
-        <v>757.4746506953724</v>
+        <v>380.9266779933851</v>
       </c>
       <c r="D6" t="n">
-        <v>618.6360136855844</v>
+        <v>380.9266779933851</v>
       </c>
       <c r="E6" t="n">
-        <v>471.6080037424556</v>
+        <v>233.8986680502563</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9142056923299</v>
+        <v>139.8034204056755</v>
       </c>
       <c r="G6" t="n">
-        <v>208.1857057156145</v>
+        <v>139.8034204056755</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2478482623126</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="I6" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1197094854797</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="K6" t="n">
-        <v>329.6102620456684</v>
+        <v>269.3561155125622</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4321072157841</v>
+        <v>635.1779606826778</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.46546072601</v>
+        <v>1120.211314192904</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.801802261633</v>
+        <v>1141.210647773235</v>
       </c>
       <c r="O6" t="n">
-        <v>1673.801802261633</v>
+        <v>1533.410598557386</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.506517833084</v>
+        <v>1835.506517833083</v>
       </c>
       <c r="Q6" t="n">
         <v>1993.278147618678</v>
       </c>
       <c r="R6" t="n">
-        <v>1933.493878713624</v>
+        <v>1933.493878713623</v>
       </c>
       <c r="S6" t="n">
         <v>1780.694391726364</v>
       </c>
       <c r="T6" t="n">
-        <v>1592.009287892349</v>
+        <v>1780.694391726364</v>
       </c>
       <c r="U6" t="n">
-        <v>1373.51449549066</v>
+        <v>1562.199599324674</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.118872938993</v>
+        <v>1333.803976773008</v>
       </c>
       <c r="W6" t="n">
-        <v>903.8030041723035</v>
+        <v>1092.488108006318</v>
       </c>
       <c r="X6" t="n">
-        <v>757.4746506953724</v>
+        <v>894.5711198841124</v>
       </c>
       <c r="Y6" t="n">
-        <v>757.4746506953724</v>
+        <v>702.0497935336912</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.6386117794726</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="C7" t="n">
-        <v>520.6386117794726</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="D7" t="n">
-        <v>520.6386117794726</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="E7" t="n">
-        <v>520.6386117794726</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="F7" t="n">
-        <v>368.1579568052497</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="G7" t="n">
-        <v>199.2382081730997</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="H7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="I7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="J7" t="n">
-        <v>39.86556295237357</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46975069701698</v>
+        <v>73.46975069701696</v>
       </c>
       <c r="L7" t="n">
         <v>174.0768300972765</v>
@@ -4759,16 +4759,16 @@
         <v>571.924808198306</v>
       </c>
       <c r="V7" t="n">
-        <v>571.924808198306</v>
+        <v>326.0219644349744</v>
       </c>
       <c r="W7" t="n">
-        <v>571.924808198306</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="X7" t="n">
-        <v>571.924808198306</v>
+        <v>39.86556295237355</v>
       </c>
       <c r="Y7" t="n">
-        <v>571.924808198306</v>
+        <v>39.86556295237355</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1313.62741011778</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="C8" t="n">
-        <v>931.6936514505876</v>
+        <v>831.8083099227024</v>
       </c>
       <c r="D8" t="n">
-        <v>569.8370984499275</v>
+        <v>458.984345149926</v>
       </c>
       <c r="E8" t="n">
-        <v>569.8370984499275</v>
+        <v>64.19862525603281</v>
       </c>
       <c r="F8" t="n">
-        <v>559.7263118005019</v>
+        <v>54.08783860660719</v>
       </c>
       <c r="G8" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H8" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
@@ -4829,25 +4829,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>2101.212805059961</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>2101.212805059961</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="V8" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="W8" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="X8" t="n">
-        <v>2101.212805059961</v>
+        <v>1352.645609317268</v>
       </c>
       <c r="Y8" t="n">
-        <v>1707.670949635799</v>
+        <v>959.1037538931058</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>461.879904359699</v>
+        <v>614.6793913469587</v>
       </c>
       <c r="C9" t="n">
-        <v>300.1762316006536</v>
+        <v>452.9757185879134</v>
       </c>
       <c r="D9" t="n">
-        <v>161.3375945908657</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="E9" t="n">
-        <v>42.02425610119923</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="F9" t="n">
-        <v>42.02425610119923</v>
+        <v>314.1370815781255</v>
       </c>
       <c r="G9" t="n">
-        <v>42.02425610119923</v>
+        <v>185.4085816014101</v>
       </c>
       <c r="H9" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J9" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K9" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>953.1336013146474</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1464.39924743777</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1856.59919822192</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
@@ -4908,25 +4908,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.743432320892</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1634.248639919202</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.853017367536</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.537148600846</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>966.6201604786407</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>774.0988341282196</v>
       </c>
     </row>
     <row r="10">
@@ -4990,13 +4990,13 @@
         <v>574.0835013471317</v>
       </c>
       <c r="T10" t="n">
-        <v>574.0835013471317</v>
+        <v>340.9045481628106</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="V10" t="n">
-        <v>313.3481969055543</v>
+        <v>328.1806575838001</v>
       </c>
       <c r="W10" t="n">
         <v>42.02425610119923</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1514.727252652378</v>
+        <v>859.3534917677374</v>
       </c>
       <c r="C11" t="n">
-        <v>1247.369418740951</v>
+        <v>591.9956578563114</v>
       </c>
       <c r="D11" t="n">
-        <v>989.121378723941</v>
+        <v>333.7476178393015</v>
       </c>
       <c r="E11" t="n">
-        <v>708.9115835858142</v>
+        <v>333.7476178393015</v>
       </c>
       <c r="F11" t="n">
-        <v>409.336317651751</v>
+        <v>326.0536055086297</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8082558617054</v>
+        <v>326.0536055086297</v>
       </c>
       <c r="H11" t="n">
         <v>107.8082558617054</v>
@@ -5039,28 +5039,28 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J11" t="n">
-        <v>130.8102158176438</v>
+        <v>233.8613899522002</v>
       </c>
       <c r="K11" t="n">
-        <v>370.9505878624265</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L11" t="n">
-        <v>718.8359609473728</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M11" t="n">
-        <v>1112.075127200461</v>
+        <v>1215.126301335017</v>
       </c>
       <c r="N11" t="n">
-        <v>1490.406485888176</v>
+        <v>1593.457660022733</v>
       </c>
       <c r="O11" t="n">
-        <v>1907.706934214137</v>
+        <v>2010.758108348693</v>
       </c>
       <c r="P11" t="n">
-        <v>2248.159694523317</v>
+        <v>2351.210868657873</v>
       </c>
       <c r="Q11" t="n">
-        <v>2454.887812062981</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R11" t="n">
         <v>2478.349091313393</v>
@@ -5069,22 +5069,22 @@
         <v>2405.696040699514</v>
       </c>
       <c r="T11" t="n">
-        <v>2405.696040699514</v>
+        <v>2295.913019186291</v>
       </c>
       <c r="U11" t="n">
-        <v>2309.608088524003</v>
+        <v>2155.603607656051</v>
       </c>
       <c r="V11" t="n">
-        <v>2309.608088524003</v>
+        <v>1933.200258307759</v>
       </c>
       <c r="W11" t="n">
-        <v>2061.64908313737</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X11" t="n">
-        <v>1794.19486741463</v>
+        <v>1417.787037198386</v>
       </c>
       <c r="Y11" t="n">
-        <v>1794.19486741463</v>
+        <v>1138.82110652999</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D12" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3094226163499</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6156245662243</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G12" t="n">
-        <v>217.8871245895088</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H12" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I12" t="n">
         <v>49.56698182626786</v>
@@ -5133,37 +5133,37 @@
         <v>1701.432525723027</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q12" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R12" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S12" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T12" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U12" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V12" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W12" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X12" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y12" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2084787095623</v>
+        <v>347.2084787095621</v>
       </c>
       <c r="C13" t="n">
-        <v>292.168433927009</v>
+        <v>292.1684339270088</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6724655105382</v>
+        <v>253.6724655105381</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2393760276227</v>
+        <v>216.2393760276231</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3346458091663</v>
+        <v>178.3346458091666</v>
       </c>
       <c r="G13" t="n">
         <v>123.9908219327827</v>
       </c>
       <c r="H13" t="n">
-        <v>79.19410146782292</v>
+        <v>79.19410146782295</v>
       </c>
       <c r="I13" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0007461414252</v>
+        <v>103.0007461414254</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9007977391954</v>
+        <v>248.9007977391956</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8037409925815</v>
+        <v>461.8037409925816</v>
       </c>
       <c r="M13" t="n">
-        <v>692.0931109733099</v>
+        <v>692.0931109733101</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8113165760369</v>
+        <v>922.8113165760371</v>
       </c>
       <c r="O13" t="n">
         <v>1133.570826924853</v>
@@ -5230,19 +5230,19 @@
         <v>1130.677867206769</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0635524516355</v>
+        <v>958.0635524516352</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9041727658245</v>
+        <v>811.9041727658242</v>
       </c>
       <c r="W13" t="n">
-        <v>640.32369603899</v>
+        <v>640.3236960389897</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6471566901322</v>
+        <v>523.647156690132</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.1879226381757</v>
+        <v>416.1879226381756</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1386.780111916623</v>
+        <v>883.876911459703</v>
       </c>
       <c r="C14" t="n">
-        <v>1119.422278005198</v>
+        <v>883.876911459703</v>
       </c>
       <c r="D14" t="n">
-        <v>1119.422278005198</v>
+        <v>625.628871442693</v>
       </c>
       <c r="E14" t="n">
-        <v>927.1569332327385</v>
+        <v>625.628871442693</v>
       </c>
       <c r="F14" t="n">
-        <v>627.5816672986753</v>
+        <v>326.0536055086297</v>
       </c>
       <c r="G14" t="n">
         <v>326.0536055086297</v>
@@ -5276,28 +5276,28 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J14" t="n">
-        <v>121.5655260990735</v>
+        <v>233.8613899522002</v>
       </c>
       <c r="K14" t="n">
-        <v>361.7058981438563</v>
+        <v>474.001761996983</v>
       </c>
       <c r="L14" t="n">
-        <v>821.8871350819292</v>
+        <v>821.8871350819293</v>
       </c>
       <c r="M14" t="n">
-        <v>1215.126301335017</v>
+        <v>1327.422165188144</v>
       </c>
       <c r="N14" t="n">
-        <v>1593.457660022733</v>
+        <v>1705.75352387586</v>
       </c>
       <c r="O14" t="n">
-        <v>1907.706934214137</v>
+        <v>2043.464077317676</v>
       </c>
       <c r="P14" t="n">
-        <v>2248.159694523317</v>
+        <v>2271.620973773729</v>
       </c>
       <c r="Q14" t="n">
-        <v>2454.887812062981</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R14" t="n">
         <v>2478.349091313393</v>
@@ -5309,19 +5309,19 @@
         <v>2295.913019186291</v>
       </c>
       <c r="U14" t="n">
-        <v>2155.603607656051</v>
+        <v>2155.603607656052</v>
       </c>
       <c r="V14" t="n">
         <v>1933.200258307759</v>
       </c>
       <c r="W14" t="n">
-        <v>1933.200258307759</v>
+        <v>1685.241252921126</v>
       </c>
       <c r="X14" t="n">
-        <v>1665.746042585019</v>
+        <v>1442.310456890351</v>
       </c>
       <c r="Y14" t="n">
-        <v>1386.780111916623</v>
+        <v>1163.344526221956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C15" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D15" t="n">
-        <v>538.4738808442979</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E15" t="n">
-        <v>391.4458709011691</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F15" t="n">
-        <v>256.7520728510435</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G15" t="n">
-        <v>128.0235728743281</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H15" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I15" t="n">
         <v>49.56698182626786</v>
@@ -5361,16 +5361,16 @@
         <v>339.3116809195627</v>
       </c>
       <c r="L15" t="n">
-        <v>629.9825918346027</v>
+        <v>705.1335260896783</v>
       </c>
       <c r="M15" t="n">
-        <v>1115.015945344829</v>
+        <v>1190.166879599905</v>
       </c>
       <c r="N15" t="n">
         <v>1626.281591467951</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.481542252102</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P15" t="n">
         <v>2320.577461527799</v>
@@ -5379,28 +5379,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S15" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T15" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U15" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V15" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W15" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X15" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y15" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="16">
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.2084787095618</v>
+        <v>347.2084787095619</v>
       </c>
       <c r="C16" t="n">
         <v>292.1684339270086</v>
@@ -5419,34 +5419,34 @@
         <v>253.6724655105378</v>
       </c>
       <c r="E16" t="n">
-        <v>216.2393760276229</v>
+        <v>216.2393760276231</v>
       </c>
       <c r="F16" t="n">
-        <v>178.3346458091664</v>
+        <v>178.3346458091666</v>
       </c>
       <c r="G16" t="n">
-        <v>123.9908219327827</v>
+        <v>123.9908219327831</v>
       </c>
       <c r="H16" t="n">
-        <v>79.19410146782293</v>
+        <v>79.19410146782337</v>
       </c>
       <c r="I16" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0007461414252</v>
+        <v>103.0007461414254</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9007977391952</v>
+        <v>248.9007977391956</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8037409925811</v>
+        <v>461.8037409925816</v>
       </c>
       <c r="M16" t="n">
-        <v>692.0931109733094</v>
+        <v>692.0931109733099</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8113165760365</v>
+        <v>922.8113165760369</v>
       </c>
       <c r="O16" t="n">
         <v>1133.570826924853</v>
@@ -5467,13 +5467,13 @@
         <v>1130.677867206769</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0635524516351</v>
+        <v>958.063552451635</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9041727658241</v>
+        <v>811.904172765824</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3236960389896</v>
+        <v>640.3236960389895</v>
       </c>
       <c r="X16" t="n">
         <v>523.6471566901316</v>
@@ -5495,13 +5495,13 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D17" t="n">
-        <v>916.1603581936773</v>
+        <v>916.160358193678</v>
       </c>
       <c r="E17" t="n">
-        <v>694.1918370909882</v>
+        <v>694.1918370909889</v>
       </c>
       <c r="F17" t="n">
-        <v>452.8578451923626</v>
+        <v>452.8578451923631</v>
       </c>
       <c r="G17" t="n">
         <v>209.5710574377546</v>
@@ -5513,16 +5513,16 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J17" t="n">
-        <v>290.9436626343326</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K17" t="n">
-        <v>650.7559067396746</v>
+        <v>361.7058981438563</v>
       </c>
       <c r="L17" t="n">
-        <v>998.6412798246208</v>
+        <v>709.5912712288025</v>
       </c>
       <c r="M17" t="n">
-        <v>1391.880446077709</v>
+        <v>1272.20857401715</v>
       </c>
       <c r="N17" t="n">
         <v>1770.211804765424</v>
@@ -5531,16 +5531,16 @@
         <v>2075.216389238258</v>
       </c>
       <c r="P17" t="n">
-        <v>2303.373285694312</v>
+        <v>2303.373285694311</v>
       </c>
       <c r="Q17" t="n">
-        <v>2397.805539380849</v>
+        <v>2397.805539380848</v>
       </c>
       <c r="R17" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="S17" t="n">
-        <v>2463.937314734952</v>
+        <v>2463.937314734951</v>
       </c>
       <c r="T17" t="n">
         <v>2412.395567257166</v>
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>928.8797423283119</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C18" t="n">
-        <v>767.1760695692666</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D18" t="n">
-        <v>628.3374325594787</v>
+        <v>538.4738808442975</v>
       </c>
       <c r="E18" t="n">
-        <v>481.3094226163499</v>
+        <v>391.4458709011687</v>
       </c>
       <c r="F18" t="n">
         <v>346.6156245662243</v>
@@ -5616,28 +5616,28 @@
         <v>2478.349091313393</v>
       </c>
       <c r="R18" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S18" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T18" t="n">
-        <v>2166.943783302245</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U18" t="n">
-        <v>1948.448990900555</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V18" t="n">
-        <v>1720.053368348889</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W18" t="n">
-        <v>1478.737499582199</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X18" t="n">
-        <v>1280.820511459994</v>
+        <v>1190.956959744813</v>
       </c>
       <c r="Y18" t="n">
-        <v>1088.299185109573</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="19">
@@ -5662,31 +5662,31 @@
         <v>49.56698182626786</v>
       </c>
       <c r="G19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J19" t="n">
-        <v>52.78379906314252</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K19" t="n">
-        <v>86.38798680778594</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L19" t="n">
-        <v>186.9950662080454</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M19" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N19" t="n">
-        <v>423.4109140852476</v>
+        <v>420.1940968483729</v>
       </c>
       <c r="O19" t="n">
-        <v>521.8745605809372</v>
+        <v>518.6577433440626</v>
       </c>
       <c r="P19" t="n">
         <v>584.843044309075</v>
@@ -5716,7 +5716,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D20" t="n">
-        <v>916.1603581936777</v>
+        <v>916.1603581936776</v>
       </c>
       <c r="E20" t="n">
         <v>694.1918370909884</v>
       </c>
       <c r="F20" t="n">
-        <v>452.8578451923631</v>
+        <v>452.8578451923626</v>
       </c>
       <c r="G20" t="n">
         <v>209.5710574377546</v>
@@ -5750,28 +5750,28 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J20" t="n">
-        <v>241.237398159633</v>
+        <v>121.5655260990735</v>
       </c>
       <c r="K20" t="n">
-        <v>481.3777702044158</v>
+        <v>392.5431856017008</v>
       </c>
       <c r="L20" t="n">
-        <v>829.263143289362</v>
+        <v>740.4285586866471</v>
       </c>
       <c r="M20" t="n">
-        <v>1222.50230954245</v>
+        <v>1303.045861474994</v>
       </c>
       <c r="N20" t="n">
-        <v>1600.833668230166</v>
+        <v>1681.37722016271</v>
       </c>
       <c r="O20" t="n">
-        <v>1905.838252703</v>
+        <v>1986.381804635544</v>
       </c>
       <c r="P20" t="n">
-        <v>2133.995149159053</v>
+        <v>2214.538701091597</v>
       </c>
       <c r="Q20" t="n">
-        <v>2397.805539380849</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R20" t="n">
         <v>2478.349091313393</v>
@@ -5786,7 +5786,7 @@
         <v>2330.327429762364</v>
       </c>
       <c r="V20" t="n">
-        <v>2166.165354449509</v>
+        <v>2166.16535444951</v>
       </c>
       <c r="W20" t="n">
         <v>1976.447623098315</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>839.0161906131311</v>
+        <v>839.0161906131307</v>
       </c>
       <c r="C21" t="n">
-        <v>677.3125178540859</v>
+        <v>677.3125178540854</v>
       </c>
       <c r="D21" t="n">
-        <v>538.4738808442979</v>
+        <v>559.9551472495398</v>
       </c>
       <c r="E21" t="n">
-        <v>391.4458709011691</v>
+        <v>412.9271373064109</v>
       </c>
       <c r="F21" t="n">
-        <v>256.7520728510435</v>
+        <v>278.2333392562853</v>
       </c>
       <c r="G21" t="n">
-        <v>217.8871245895088</v>
+        <v>149.5048392795698</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I21" t="n">
         <v>49.56698182626786</v>
@@ -5835,46 +5835,46 @@
         <v>339.3116809195627</v>
       </c>
       <c r="L21" t="n">
-        <v>705.1335260896783</v>
+        <v>629.9825918346022</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.166879599905</v>
+        <v>1115.015945344829</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.432525723027</v>
+        <v>1626.281591467951</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.632476507178</v>
+        <v>2018.481542252101</v>
       </c>
       <c r="P21" t="n">
-        <v>2395.728395782875</v>
+        <v>2320.577461527799</v>
       </c>
       <c r="Q21" t="n">
         <v>2478.349091313393</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.564822408339</v>
+        <v>2418.564822408338</v>
       </c>
       <c r="S21" t="n">
         <v>2265.765335421079</v>
       </c>
       <c r="T21" t="n">
-        <v>2077.080231587065</v>
+        <v>2077.080231587064</v>
       </c>
       <c r="U21" t="n">
-        <v>1858.585439185375</v>
+        <v>1858.585439185374</v>
       </c>
       <c r="V21" t="n">
-        <v>1630.189816633709</v>
+        <v>1630.189816633708</v>
       </c>
       <c r="W21" t="n">
-        <v>1388.873947867019</v>
+        <v>1388.873947867018</v>
       </c>
       <c r="X21" t="n">
         <v>1190.956959744813</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.4356333943921</v>
+        <v>998.4356333943916</v>
       </c>
     </row>
     <row r="22">
@@ -5887,37 +5887,37 @@
         <v>49.56698182626786</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="G22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="H22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="J22" t="n">
-        <v>52.70450661701975</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="K22" t="n">
-        <v>86.30869436166316</v>
+        <v>83.17116957091127</v>
       </c>
       <c r="L22" t="n">
-        <v>186.9157737619227</v>
+        <v>183.7782489711708</v>
       </c>
       <c r="M22" t="n">
-        <v>304.9885723356472</v>
+        <v>301.7717550987725</v>
       </c>
       <c r="N22" t="n">
         <v>423.4109140852476</v>
@@ -5953,7 +5953,7 @@
         <v>109.5231117359626</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.3051517194437</v>
+        <v>60.30515171944369</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1116.16712417525</v>
       </c>
       <c r="D23" t="n">
-        <v>916.1603581936773</v>
+        <v>916.1603581936778</v>
       </c>
       <c r="E23" t="n">
-        <v>694.1918370909882</v>
+        <v>694.1918370909887</v>
       </c>
       <c r="F23" t="n">
-        <v>452.8578451923627</v>
+        <v>452.8578451923629</v>
       </c>
       <c r="G23" t="n">
         <v>209.5710574377546</v>
@@ -5987,10 +5987,10 @@
         <v>49.56698182626786</v>
       </c>
       <c r="J23" t="n">
-        <v>121.5655260990735</v>
+        <v>290.9436626343325</v>
       </c>
       <c r="K23" t="n">
-        <v>361.7058981438563</v>
+        <v>531.0840346791152</v>
       </c>
       <c r="L23" t="n">
         <v>878.9694077640615</v>
@@ -6002,13 +6002,13 @@
         <v>1650.539932704865</v>
       </c>
       <c r="O23" t="n">
-        <v>2075.216389238258</v>
+        <v>2124.922653712958</v>
       </c>
       <c r="P23" t="n">
-        <v>2303.373285694311</v>
+        <v>2353.079550169011</v>
       </c>
       <c r="Q23" t="n">
-        <v>2397.805539380848</v>
+        <v>2478.349091313393</v>
       </c>
       <c r="R23" t="n">
         <v>2478.349091313393</v>
@@ -6020,13 +6020,13 @@
         <v>2412.395567257166</v>
       </c>
       <c r="U23" t="n">
-        <v>2330.327429762364</v>
+        <v>2330.327429762363</v>
       </c>
       <c r="V23" t="n">
         <v>2166.165354449509</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.447623098315</v>
+        <v>1976.447623098314</v>
       </c>
       <c r="X23" t="n">
         <v>1767.234681411012</v>
@@ -6057,19 +6057,19 @@
         <v>256.7520728510431</v>
       </c>
       <c r="G24" t="n">
-        <v>217.8871245895088</v>
+        <v>128.0235728743276</v>
       </c>
       <c r="H24" t="n">
-        <v>117.9492671362069</v>
+        <v>49.56698182626786</v>
       </c>
       <c r="I24" t="n">
         <v>49.56698182626786</v>
       </c>
       <c r="J24" t="n">
-        <v>49.56698182626786</v>
+        <v>109.821128359374</v>
       </c>
       <c r="K24" t="n">
-        <v>264.1607466644866</v>
+        <v>339.3116809195627</v>
       </c>
       <c r="L24" t="n">
         <v>629.9825918346022</v>
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.207713709014</v>
+        <v>1421.109062253347</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.849879797587</v>
+        <v>1153.751228341921</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.601839780577</v>
+        <v>895.5031883249108</v>
       </c>
       <c r="E26" t="n">
-        <v>938.3920446424507</v>
+        <v>615.2933931867842</v>
       </c>
       <c r="F26" t="n">
-        <v>638.8167787083875</v>
+        <v>615.2933931867842</v>
       </c>
       <c r="G26" t="n">
-        <v>337.2887169183418</v>
+        <v>313.7653313967385</v>
       </c>
       <c r="H26" t="n">
-        <v>119.0433672714176</v>
+        <v>95.51998174981421</v>
       </c>
       <c r="I26" t="n">
         <v>60.80209323598005</v>
@@ -6227,19 +6227,19 @@
         <v>245.0965013619123</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5327372598218</v>
+        <v>597.5327372598217</v>
       </c>
       <c r="L26" t="n">
-        <v>1055.999803726728</v>
+        <v>1057.713974197894</v>
       </c>
       <c r="M26" t="n">
-        <v>1561.534833832943</v>
+        <v>1563.249004304109</v>
       </c>
       <c r="N26" t="n">
-        <v>2052.162056373786</v>
+        <v>2053.876226844951</v>
       </c>
       <c r="O26" t="n">
-        <v>2469.462504699746</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P26" t="n">
         <v>2809.915265008926</v>
@@ -6257,19 +6257,19 @@
         <v>2857.6685896719</v>
       </c>
       <c r="U26" t="n">
-        <v>2773.003613874586</v>
+        <v>2717.35917814166</v>
       </c>
       <c r="V26" t="n">
-        <v>2550.600264526294</v>
+        <v>2494.955828793368</v>
       </c>
       <c r="W26" t="n">
-        <v>2302.641259139662</v>
+        <v>2246.996823406736</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.641259139662</v>
+        <v>1979.542607683995</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.675328471266</v>
+        <v>1700.5766770156</v>
       </c>
     </row>
     <row r="27">
@@ -6291,13 +6291,13 @@
         <v>477.8319165659574</v>
       </c>
       <c r="F27" t="n">
-        <v>343.1381185158318</v>
+        <v>357.8507359759365</v>
       </c>
       <c r="G27" t="n">
-        <v>214.4096185391164</v>
+        <v>229.122235999221</v>
       </c>
       <c r="H27" t="n">
-        <v>114.4717610858144</v>
+        <v>129.1843785459191</v>
       </c>
       <c r="I27" t="n">
         <v>60.80209323598005</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4435901192737</v>
+        <v>358.4435901192738</v>
       </c>
       <c r="C28" t="n">
         <v>303.4035453367204</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9075769202495</v>
+        <v>264.9075769202496</v>
       </c>
       <c r="E28" t="n">
-        <v>227.4744874373348</v>
+        <v>227.4744874373349</v>
       </c>
       <c r="F28" t="n">
-        <v>189.5697572188783</v>
+        <v>189.5697572188786</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2259333424947</v>
+        <v>135.2259333424949</v>
       </c>
       <c r="H28" t="n">
-        <v>90.42921287753506</v>
+        <v>90.42921287753512</v>
       </c>
       <c r="I28" t="n">
         <v>60.80209323598005</v>
@@ -6385,13 +6385,13 @@
         <v>114.2358575511374</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1359091489075</v>
+        <v>260.1359091489074</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0388524022933</v>
+        <v>473.0388524022936</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3282223830215</v>
+        <v>703.3282223830217</v>
       </c>
       <c r="N28" t="n">
         <v>934.0464279857488</v>
@@ -6421,10 +6421,10 @@
         <v>823.1392841755359</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5588074487015</v>
+        <v>651.5588074487014</v>
       </c>
       <c r="X28" t="n">
-        <v>534.8822680998437</v>
+        <v>534.8822680998435</v>
       </c>
       <c r="Y28" t="n">
         <v>427.4230340478871</v>
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1485.959673692004</v>
+        <v>1421.109062253347</v>
       </c>
       <c r="C29" t="n">
-        <v>1218.601839780577</v>
+        <v>1153.751228341921</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.601839780577</v>
+        <v>895.5031883249108</v>
       </c>
       <c r="E29" t="n">
-        <v>938.3920446424507</v>
+        <v>615.2933931867842</v>
       </c>
       <c r="F29" t="n">
-        <v>638.8167787083875</v>
+        <v>615.2933931867842</v>
       </c>
       <c r="G29" t="n">
-        <v>337.2887169183418</v>
+        <v>313.7653313967386</v>
       </c>
       <c r="H29" t="n">
-        <v>119.0433672714176</v>
+        <v>95.51998174981426</v>
       </c>
       <c r="I29" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598005</v>
       </c>
       <c r="J29" t="n">
-        <v>243.3823308907453</v>
+        <v>245.0965013619123</v>
       </c>
       <c r="K29" t="n">
-        <v>595.8185667886547</v>
+        <v>597.5327372598217</v>
       </c>
       <c r="L29" t="n">
-        <v>1055.999803726728</v>
+        <v>1057.713974197894</v>
       </c>
       <c r="M29" t="n">
-        <v>1561.534833832942</v>
+        <v>1563.249004304109</v>
       </c>
       <c r="N29" t="n">
-        <v>2052.162056373785</v>
+        <v>2053.876226844951</v>
       </c>
       <c r="O29" t="n">
-        <v>2469.462504699745</v>
+        <v>2471.176675170912</v>
       </c>
       <c r="P29" t="n">
-        <v>2809.915265008925</v>
+        <v>2811.629435480092</v>
       </c>
       <c r="Q29" t="n">
-        <v>3016.643382548589</v>
+        <v>3018.357553019756</v>
       </c>
       <c r="R29" t="n">
         <v>3040.104661799002</v>
@@ -6506,7 +6506,7 @@
         <v>1979.542607683995</v>
       </c>
       <c r="Y29" t="n">
-        <v>1765.427288454256</v>
+        <v>1700.5766770156</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.1148537380242</v>
+        <v>925.4022362779194</v>
       </c>
       <c r="C30" t="n">
-        <v>778.4111809789789</v>
+        <v>763.6985635188742</v>
       </c>
       <c r="D30" t="n">
-        <v>639.572543969191</v>
+        <v>624.8599265090862</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5445340260621</v>
+        <v>477.8319165659574</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8507359759365</v>
+        <v>343.1381185158318</v>
       </c>
       <c r="G30" t="n">
-        <v>229.122235999221</v>
+        <v>214.4096185391164</v>
       </c>
       <c r="H30" t="n">
-        <v>129.1843785459191</v>
+        <v>114.4717610858144</v>
       </c>
       <c r="I30" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598005</v>
       </c>
       <c r="J30" t="n">
         <v>121.0562397690862</v>
       </c>
       <c r="K30" t="n">
-        <v>350.5467923292748</v>
+        <v>350.5467923292749</v>
       </c>
       <c r="L30" t="n">
-        <v>716.3686374993904</v>
+        <v>716.3686374993905</v>
       </c>
       <c r="M30" t="n">
         <v>1201.401991009617</v>
@@ -6564,28 +6564,28 @@
         <v>2564.735136978181</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.663485533232</v>
+        <v>2504.950868073127</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.863998545972</v>
+        <v>2352.151381085867</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.178894711958</v>
+        <v>2163.466277251853</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.684102310268</v>
+        <v>1944.971484850163</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.288479758602</v>
+        <v>1716.575862298497</v>
       </c>
       <c r="W30" t="n">
-        <v>1489.972610991912</v>
+        <v>1475.259993531807</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.055622869706</v>
+        <v>1277.343005409601</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.534296519285</v>
+        <v>1084.82167905918</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4435901192737</v>
+        <v>358.443590119274</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4035453367205</v>
+        <v>303.4035453367208</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9075769202497</v>
+        <v>264.9075769202499</v>
       </c>
       <c r="E31" t="n">
-        <v>227.4744874373349</v>
+        <v>227.4744874373351</v>
       </c>
       <c r="F31" t="n">
-        <v>189.5697572188784</v>
+        <v>189.5697572188786</v>
       </c>
       <c r="G31" t="n">
-        <v>135.2259333424948</v>
+        <v>135.225933342495</v>
       </c>
       <c r="H31" t="n">
-        <v>90.42921287753509</v>
+        <v>90.42921287753512</v>
       </c>
       <c r="I31" t="n">
-        <v>60.80209323598004</v>
+        <v>60.80209323598005</v>
       </c>
       <c r="J31" t="n">
-        <v>114.2358575511374</v>
+        <v>114.2358575511375</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1359091489075</v>
+        <v>260.1359091489078</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0388524022933</v>
+        <v>473.0388524022941</v>
       </c>
       <c r="M31" t="n">
-        <v>703.328222383022</v>
+        <v>703.3282223830224</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0464279857488</v>
+        <v>934.0464279857495</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.805938334565</v>
+        <v>1144.805938334566</v>
       </c>
       <c r="P31" t="n">
         <v>1320.07028591583</v>
@@ -6643,28 +6643,28 @@
         <v>1394.595701515437</v>
       </c>
       <c r="R31" t="n">
-        <v>1359.649844885581</v>
+        <v>1359.649844885582</v>
       </c>
       <c r="S31" t="n">
-        <v>1260.516007045035</v>
+        <v>1260.516007045036</v>
       </c>
       <c r="T31" t="n">
         <v>1141.912978616481</v>
       </c>
       <c r="U31" t="n">
-        <v>969.2986638613469</v>
+        <v>969.2986638613473</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1392841755359</v>
+        <v>823.1392841755363</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5588074487014</v>
+        <v>651.5588074487018</v>
       </c>
       <c r="X31" t="n">
-        <v>534.8822680998436</v>
+        <v>534.8822680998439</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4230340478871</v>
+        <v>427.4230340478874</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1541.907533211064</v>
+        <v>1541.907533211063</v>
       </c>
       <c r="C32" t="n">
         <v>1303.141340349512</v>
@@ -6683,46 +6683,46 @@
         <v>1073.484941382377</v>
       </c>
       <c r="E32" t="n">
-        <v>821.8667872941254</v>
+        <v>821.8667872941251</v>
       </c>
       <c r="F32" t="n">
-        <v>550.8831624099371</v>
+        <v>550.8831624099369</v>
       </c>
       <c r="G32" t="n">
-        <v>277.9467416697664</v>
+        <v>277.9467416697662</v>
       </c>
       <c r="H32" t="n">
-        <v>88.29303307271701</v>
+        <v>88.29303307271692</v>
       </c>
       <c r="I32" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J32" t="n">
-        <v>130.64194435996</v>
+        <v>270.9604756060692</v>
       </c>
       <c r="K32" t="n">
-        <v>511.100847650852</v>
+        <v>651.4193788969612</v>
       </c>
       <c r="L32" t="n">
-        <v>999.3047519819072</v>
+        <v>1060.566204419768</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.862449481104</v>
+        <v>1453.805370672856</v>
       </c>
       <c r="N32" t="n">
-        <v>2051.512339414929</v>
+        <v>1972.455260606681</v>
       </c>
       <c r="O32" t="n">
-        <v>2496.835455133872</v>
+        <v>2417.778376325624</v>
       </c>
       <c r="P32" t="n">
-        <v>2724.992351589925</v>
+        <v>2786.253804027786</v>
       </c>
       <c r="Q32" t="n">
-        <v>2932.170004357719</v>
+        <v>2880.686057714323</v>
       </c>
       <c r="R32" t="n">
-        <v>2932.170004357719</v>
+        <v>2932.170004357718</v>
       </c>
       <c r="S32" t="n">
         <v>2888.108594793714</v>
@@ -6731,16 +6731,16 @@
         <v>2806.917214330367</v>
       </c>
       <c r="U32" t="n">
-        <v>2695.199443850002</v>
+        <v>2695.199443850001</v>
       </c>
       <c r="V32" t="n">
-        <v>2501.387735551585</v>
+        <v>2501.387735551584</v>
       </c>
       <c r="W32" t="n">
         <v>2282.020371214827</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.157796541962</v>
+        <v>2043.157796541961</v>
       </c>
       <c r="Y32" t="n">
         <v>1792.783506923441</v>
@@ -6762,19 +6762,19 @@
         <v>622.7012333602607</v>
       </c>
       <c r="E33" t="n">
-        <v>490.3858408772364</v>
+        <v>475.673223417132</v>
       </c>
       <c r="F33" t="n">
-        <v>355.6920428271108</v>
+        <v>340.9794253670063</v>
       </c>
       <c r="G33" t="n">
-        <v>226.9635428503954</v>
+        <v>212.2509253902909</v>
       </c>
       <c r="H33" t="n">
         <v>127.0256853970934</v>
       </c>
       <c r="I33" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J33" t="n">
         <v>118.8975466202605</v>
@@ -6783,7 +6783,7 @@
         <v>348.3880991804492</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2099443505649</v>
+        <v>714.2099443505648</v>
       </c>
       <c r="M33" t="n">
         <v>1199.243297860791</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.1434096213235</v>
+        <v>156.1434096213229</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6950058886452</v>
+        <v>129.6950058886447</v>
       </c>
       <c r="D34" t="n">
-        <v>119.7906785220493</v>
+        <v>119.7906785220488</v>
       </c>
       <c r="E34" t="n">
-        <v>110.9492300890095</v>
+        <v>110.9492300890091</v>
       </c>
       <c r="F34" t="n">
-        <v>101.6361409204279</v>
+        <v>101.6361409204277</v>
       </c>
       <c r="G34" t="n">
-        <v>75.88395809391932</v>
+        <v>75.88395809391913</v>
       </c>
       <c r="H34" t="n">
-        <v>59.67887867883449</v>
+        <v>59.6788786788344</v>
       </c>
       <c r="I34" t="n">
-        <v>58.64340008715438</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="J34" t="n">
-        <v>140.0998317952942</v>
+        <v>58.64340008715437</v>
       </c>
       <c r="K34" t="n">
-        <v>314.0225507860466</v>
+        <v>232.566119077907</v>
       </c>
       <c r="L34" t="n">
-        <v>414.6296301863061</v>
+        <v>333.1731984781665</v>
       </c>
       <c r="M34" t="n">
-        <v>532.6231363139078</v>
+        <v>451.1667046057682</v>
       </c>
       <c r="N34" t="n">
-        <v>651.0454780635082</v>
+        <v>633.2200900986739</v>
       </c>
       <c r="O34" t="n">
-        <v>749.5091245591979</v>
+        <v>872.0022678404728</v>
       </c>
       <c r="P34" t="n">
-        <v>832.4226685760223</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="Q34" t="n">
-        <v>934.9707515686119</v>
+        <v>934.9707515686106</v>
       </c>
       <c r="R34" t="n">
-        <v>928.6165359886315</v>
+        <v>928.6165359886303</v>
       </c>
       <c r="S34" t="n">
-        <v>858.0743391979605</v>
+        <v>858.0743391979593</v>
       </c>
       <c r="T34" t="n">
-        <v>768.0629518192807</v>
+        <v>768.0629518192795</v>
       </c>
       <c r="U34" t="n">
-        <v>624.0402781140219</v>
+        <v>624.0402781140209</v>
       </c>
       <c r="V34" t="n">
-        <v>506.4725394780859</v>
+        <v>506.472539478085</v>
       </c>
       <c r="W34" t="n">
-        <v>363.4837038011264</v>
+        <v>363.4837038011256</v>
       </c>
       <c r="X34" t="n">
-        <v>275.3988055021435</v>
+        <v>275.3988055021427</v>
       </c>
       <c r="Y34" t="n">
-        <v>196.531212500062</v>
+        <v>196.5312125000613</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>1147.761190413098</v>
       </c>
       <c r="D35" t="n">
-        <v>942.7443621478541</v>
+        <v>942.744362147854</v>
       </c>
       <c r="E35" t="n">
-        <v>715.7657787614932</v>
+        <v>715.765778761493</v>
       </c>
       <c r="F35" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791957</v>
       </c>
       <c r="G35" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H35" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575746</v>
       </c>
       <c r="I35" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259237</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
-        <v>567.8831210837625</v>
+        <v>479.0485364810481</v>
       </c>
       <c r="L35" t="n">
-        <v>915.7684941687087</v>
+        <v>826.9339095659943</v>
       </c>
       <c r="M35" t="n">
-        <v>1309.007660421797</v>
+        <v>1220.173075819082</v>
       </c>
       <c r="N35" t="n">
-        <v>1851.806793600545</v>
+        <v>1598.504434506798</v>
       </c>
       <c r="O35" t="n">
-        <v>2156.811378073378</v>
+        <v>2067.976793470664</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6971,7 +6971,7 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V35" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W35" t="n">
         <v>2028.08193847085</v>
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I36" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J36" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K36" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L36" t="n">
         <v>706.6672186254962</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287317</v>
       </c>
       <c r="C37" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="E37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="F37" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670345</v>
       </c>
       <c r="G37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J37" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K37" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L37" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M37" t="n">
-        <v>349.5242082962442</v>
+        <v>348.4115961716261</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9465500458446</v>
+        <v>466.8339379212265</v>
       </c>
       <c r="O37" t="n">
-        <v>566.4101965415342</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.721134500735</v>
+        <v>397.608522376117</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666899</v>
+        <v>304.6803544420719</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670033</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972072</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>1361.887812572759</v>
       </c>
       <c r="C38" t="n">
-        <v>1147.761190413098</v>
+        <v>1147.761190413099</v>
       </c>
       <c r="D38" t="n">
-        <v>942.7443621478541</v>
+        <v>942.7443621478544</v>
       </c>
       <c r="E38" t="n">
-        <v>715.7657787614932</v>
+        <v>715.7657787614935</v>
       </c>
       <c r="F38" t="n">
-        <v>469.4217245791958</v>
+        <v>469.4217245791956</v>
       </c>
       <c r="G38" t="n">
-        <v>221.124874540916</v>
+        <v>221.1248745409159</v>
       </c>
       <c r="H38" t="n">
-        <v>56.11073664575749</v>
+        <v>56.11073664575747</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J38" t="n">
         <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>363.2395906796742</v>
+        <v>479.0485364810488</v>
       </c>
       <c r="L38" t="n">
-        <v>711.1249637646204</v>
+        <v>826.933909565995</v>
       </c>
       <c r="M38" t="n">
-        <v>1104.364130017708</v>
+        <v>1220.173075819083</v>
       </c>
       <c r="N38" t="n">
-        <v>1647.163263196456</v>
+        <v>1762.972208997831</v>
       </c>
       <c r="O38" t="n">
-        <v>2116.635622160322</v>
+        <v>2067.976793470665</v>
       </c>
       <c r="P38" t="n">
-        <v>2344.792518616376</v>
+        <v>2296.133689926718</v>
       </c>
       <c r="Q38" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R38" t="n">
         <v>2555.033718104287</v>
@@ -7208,16 +7208,16 @@
         <v>2391.981869702243</v>
       </c>
       <c r="V38" t="n">
-        <v>2222.809732105716</v>
+        <v>2222.809732105717</v>
       </c>
       <c r="W38" t="n">
         <v>2028.08193847085</v>
       </c>
       <c r="X38" t="n">
-        <v>1813.858934499875</v>
+        <v>1813.858934499876</v>
       </c>
       <c r="Y38" t="n">
-        <v>1588.124215583245</v>
+        <v>1588.124215583246</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="J39" t="n">
-        <v>111.354820895192</v>
+        <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
         <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254963</v>
+        <v>706.6672186254962</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749096</v>
+        <v>52.90950739287319</v>
       </c>
       <c r="C40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="D40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="E40" t="n">
-        <v>52.2132864867035</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="F40" t="n">
-        <v>52.2132864867035</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208575</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208574</v>
+        <v>74.23504503930334</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672915</v>
+        <v>107.8392327839468</v>
       </c>
       <c r="L40" t="n">
-        <v>185.3119415069887</v>
+        <v>208.4463121842062</v>
       </c>
       <c r="M40" t="n">
-        <v>303.3054476345904</v>
+        <v>326.439818311808</v>
       </c>
       <c r="N40" t="n">
-        <v>421.7277893841908</v>
+        <v>444.8621600614084</v>
       </c>
       <c r="O40" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>611.4572037146876</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.378680269672</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808919</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041029</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.721134500735</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666899</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.4437015916212</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945292</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433856</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1379.045839130633</v>
+        <v>1316.86634605438</v>
       </c>
       <c r="C41" t="n">
-        <v>1159.291533656175</v>
+        <v>1097.112040579922</v>
       </c>
       <c r="D41" t="n">
-        <v>970.8827787218413</v>
+        <v>886.4675289998806</v>
       </c>
       <c r="E41" t="n">
-        <v>738.276512020683</v>
+        <v>653.8612622987225</v>
       </c>
       <c r="F41" t="n">
-        <v>486.304774523588</v>
+        <v>401.8895248016279</v>
       </c>
       <c r="G41" t="n">
-        <v>232.3802411705109</v>
+        <v>147.9649914485511</v>
       </c>
       <c r="H41" t="n">
-        <v>61.73841996055492</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>282.0513007090908</v>
+        <v>282.0513007090909</v>
       </c>
       <c r="K41" t="n">
-        <v>578.914505917428</v>
+        <v>522.1916727538737</v>
       </c>
       <c r="L41" t="n">
-        <v>926.7998790023742</v>
+        <v>870.0770458388199</v>
       </c>
       <c r="M41" t="n">
-        <v>1320.039045255462</v>
+        <v>1263.316212091908</v>
       </c>
       <c r="N41" t="n">
-        <v>1857.322486017377</v>
+        <v>1641.647570779623</v>
       </c>
       <c r="O41" t="n">
-        <v>2162.327070490211</v>
+        <v>1946.652155252457</v>
       </c>
       <c r="P41" t="n">
-        <v>2390.483966946264</v>
+        <v>2301.64938234355</v>
       </c>
       <c r="Q41" t="n">
-        <v>2484.916220632801</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R41" t="n">
         <v>2555.033718104287</v>
@@ -7439,22 +7439,22 @@
         <v>2529.984195927376</v>
       </c>
       <c r="T41" t="n">
-        <v>2529.984195927376</v>
+        <v>2467.804702851122</v>
       </c>
       <c r="U41" t="n">
-        <v>2437.278312834105</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V41" t="n">
-        <v>2262.478491922781</v>
+        <v>2200.298998846527</v>
       </c>
       <c r="W41" t="n">
-        <v>2062.123014973116</v>
+        <v>1999.943521896863</v>
       </c>
       <c r="X41" t="n">
-        <v>1842.272327687344</v>
+        <v>1780.092834611092</v>
       </c>
       <c r="Y41" t="n">
-        <v>1610.909925455917</v>
+        <v>1548.730432379665</v>
       </c>
     </row>
     <row r="42">
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I42" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J42" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K42" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L42" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M42" t="n">
         <v>1191.700572135723</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.27748614708582</v>
+        <v>58.53719070767048</v>
       </c>
       <c r="C43" t="n">
-        <v>57.84096980150092</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>57.84096980150092</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E43" t="n">
-        <v>57.84096980150092</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="F43" t="n">
-        <v>57.84096980150092</v>
+        <v>57.84096980150076</v>
       </c>
       <c r="G43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J43" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
         <v>185.3119415069887</v>
@@ -7585,34 +7585,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>685.6555134176465</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>685.6555134176465</v>
+        <v>678.9152179782296</v>
       </c>
       <c r="R43" t="n">
-        <v>685.6555134176465</v>
+        <v>678.9152179782296</v>
       </c>
       <c r="S43" t="n">
-        <v>634.1252040140688</v>
+        <v>627.3849085746522</v>
       </c>
       <c r="T43" t="n">
-        <v>563.1257040224824</v>
+        <v>556.385408583066</v>
       </c>
       <c r="U43" t="n">
-        <v>438.1149177043171</v>
+        <v>431.3746222649009</v>
       </c>
       <c r="V43" t="n">
-        <v>339.5590664554745</v>
+        <v>332.8187710160585</v>
       </c>
       <c r="W43" t="n">
-        <v>215.5821181656084</v>
+        <v>208.8418227261925</v>
       </c>
       <c r="X43" t="n">
-        <v>146.509107253719</v>
+        <v>139.7688118143033</v>
       </c>
       <c r="Y43" t="n">
-        <v>86.65340163873086</v>
+        <v>79.91310619931532</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1401.281595776341</v>
+        <v>1316.86634605438</v>
       </c>
       <c r="C44" t="n">
-        <v>1181.527290301883</v>
+        <v>1097.112040579923</v>
       </c>
       <c r="D44" t="n">
-        <v>970.8827787218413</v>
+        <v>886.4675289998816</v>
       </c>
       <c r="E44" t="n">
-        <v>738.276512020683</v>
+        <v>653.8612622987234</v>
       </c>
       <c r="F44" t="n">
-        <v>486.304774523588</v>
+        <v>401.8895248016287</v>
       </c>
       <c r="G44" t="n">
-        <v>232.3802411705109</v>
+        <v>147.9649914485517</v>
       </c>
       <c r="H44" t="n">
-        <v>61.73841996055493</v>
+        <v>61.73841996055475</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>282.0513007090908</v>
+        <v>282.0513007090909</v>
       </c>
       <c r="K44" t="n">
-        <v>578.914505917428</v>
+        <v>522.1916727538737</v>
       </c>
       <c r="L44" t="n">
-        <v>926.7998790023742</v>
+        <v>1029.029127913019</v>
       </c>
       <c r="M44" t="n">
-        <v>1320.039045255462</v>
+        <v>1422.268294166107</v>
       </c>
       <c r="N44" t="n">
-        <v>1698.370403943178</v>
+        <v>1800.599652853823</v>
       </c>
       <c r="O44" t="n">
-        <v>2003.374988416012</v>
+        <v>2105.604237326657</v>
       </c>
       <c r="P44" t="n">
-        <v>2231.531884872065</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q44" t="n">
-        <v>2484.916220632801</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R44" t="n">
         <v>2555.033718104287</v>
       </c>
       <c r="S44" t="n">
-        <v>2555.033718104287</v>
+        <v>2529.984195927376</v>
       </c>
       <c r="T44" t="n">
-        <v>2492.854225028033</v>
+        <v>2467.804702851122</v>
       </c>
       <c r="U44" t="n">
-        <v>2400.148341934762</v>
+        <v>2375.098819757851</v>
       </c>
       <c r="V44" t="n">
-        <v>2284.714248568489</v>
+        <v>2200.298998846527</v>
       </c>
       <c r="W44" t="n">
-        <v>2084.358771618824</v>
+        <v>1999.943521896864</v>
       </c>
       <c r="X44" t="n">
-        <v>1864.508084333052</v>
+        <v>1780.092834611092</v>
       </c>
       <c r="Y44" t="n">
-        <v>1633.145682101625</v>
+        <v>1548.730432379665</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7749,28 +7749,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R45" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S45" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.27748614708584</v>
+        <v>65.27748614708548</v>
       </c>
       <c r="C46" t="n">
-        <v>57.84096980150093</v>
+        <v>57.84096980150075</v>
       </c>
       <c r="D46" t="n">
-        <v>57.84096980150093</v>
+        <v>57.84096980150075</v>
       </c>
       <c r="E46" t="n">
-        <v>57.84096980150093</v>
+        <v>57.84096980150075</v>
       </c>
       <c r="F46" t="n">
-        <v>57.84096980150093</v>
+        <v>57.84096980150075</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>84.70486210672914</v>
       </c>
       <c r="L46" t="n">
         <v>185.3119415069887</v>
       </c>
       <c r="M46" t="n">
-        <v>405.8010414442186</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N46" t="n">
-        <v>524.223383193819</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O46" t="n">
-        <v>622.6870296895087</v>
+        <v>622.6870296895069</v>
       </c>
       <c r="P46" t="n">
-        <v>685.6555134176465</v>
+        <v>685.6555134176447</v>
       </c>
       <c r="Q46" t="n">
-        <v>685.6555134176465</v>
+        <v>685.6555134176447</v>
       </c>
       <c r="R46" t="n">
-        <v>685.6555134176465</v>
+        <v>685.6555134176447</v>
       </c>
       <c r="S46" t="n">
-        <v>634.1252040140688</v>
+        <v>634.1252040140672</v>
       </c>
       <c r="T46" t="n">
-        <v>563.1257040224824</v>
+        <v>563.125704022481</v>
       </c>
       <c r="U46" t="n">
-        <v>438.1149177043171</v>
+        <v>438.1149177043159</v>
       </c>
       <c r="V46" t="n">
-        <v>339.5590664554745</v>
+        <v>339.5590664554734</v>
       </c>
       <c r="W46" t="n">
-        <v>215.5821181656084</v>
+        <v>215.5821181656075</v>
       </c>
       <c r="X46" t="n">
-        <v>146.509107253719</v>
+        <v>146.5091072537183</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.65340163873086</v>
+        <v>86.65340163873033</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O2" t="n">
-        <v>483.581942100235</v>
+        <v>483.5819421002343</v>
       </c>
       <c r="P2" t="n">
         <v>418.3383206229274</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>605.4165828749999</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>605.0346779723779</v>
+        <v>605.0346779723777</v>
       </c>
       <c r="O3" t="n">
-        <v>438.5628277596413</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>365.9634164256844</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>384.2197145424701</v>
       </c>
       <c r="Q5" t="n">
-        <v>241.8908817774195</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,7 +8292,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
         <v>343.8048081163522</v>
@@ -8304,13 +8304,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>605.0346779723779</v>
+        <v>127.9265891286485</v>
       </c>
       <c r="O6" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P6" t="n">
-        <v>272.1923025609621</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
         <v>273.1004740566038</v>
@@ -8529,10 +8529,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L9" t="n">
         <v>482.0924488944969</v>
@@ -8547,10 +8547,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>196.5733747639883</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8781,13 +8781,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>436.1109804586609</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>197.1904394555166</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9009,13 +9009,13 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>406.1824142934104</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>623.1450866466196</v>
+        <v>547.2350520455324</v>
       </c>
       <c r="O15" t="n">
         <v>512.0210150597484</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>197.1904394555166</v>
+        <v>197.1904394555162</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9483,7 +9483,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934099</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>197.1904394555166</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,13 +9714,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>328.75754779113</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>406.1824142934099</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
@@ -10677,7 +10677,7 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
-        <v>512.021015059748</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
         <v>414.0015992319183</v>
@@ -10899,7 +10899,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425316</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
@@ -11139,7 +11139,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>288.962441067358</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>43.77924476118129</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1762713617116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D14" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>87.06500586201062</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,10 +23555,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327662</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>24.27818549504549</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>23.28815166638738</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>55.08799137559675</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24683,13 +24683,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>255.6655596168399</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>23.28815166638732</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>64.20210532427016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>22.013399079251</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>73.0397290822555</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.53136814248433</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,7 +25679,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>61.55769814549149</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>83.57109722473925</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.79902695514212</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>58.77207026959998</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675439.8114217706</v>
+        <v>675439.8114217705</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675439.8114217706</v>
+        <v>675439.8114217705</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>716734.3296026139</v>
+        <v>716734.3296026137</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>734603.0760533256</v>
+        <v>734603.0760533258</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>734603.0760533256</v>
+        <v>734603.0760533258</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953454</v>
       </c>
       <c r="C2" t="n">
+        <v>614099.2483953454</v>
+      </c>
+      <c r="D2" t="n">
         <v>614099.2483953452</v>
-      </c>
-      <c r="D2" t="n">
-        <v>614099.2483953454</v>
       </c>
       <c r="E2" t="n">
         <v>559023.5040862833</v>
       </c>
       <c r="F2" t="n">
-        <v>559023.5040862835</v>
+        <v>559023.5040862827</v>
       </c>
       <c r="G2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="H2" t="n">
-        <v>614099.2483953455</v>
+        <v>614099.2483953458</v>
       </c>
       <c r="I2" t="n">
         <v>614099.2483953455</v>
       </c>
       <c r="J2" t="n">
-        <v>593730.0754918972</v>
+        <v>593730.0754918966</v>
       </c>
       <c r="K2" t="n">
-        <v>593730.0754918971</v>
+        <v>593730.0754918965</v>
       </c>
       <c r="L2" t="n">
         <v>614099.2483953465</v>
       </c>
       <c r="M2" t="n">
-        <v>614099.2483953452</v>
+        <v>614099.2483953453</v>
       </c>
       <c r="N2" t="n">
-        <v>614099.2483953453</v>
+        <v>614099.2483953456</v>
       </c>
       <c r="O2" t="n">
-        <v>608777.4409240738</v>
+        <v>608777.4409240737</v>
       </c>
       <c r="P2" t="n">
-        <v>608777.440924074</v>
+        <v>608777.4409240736</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166998.3381661036</v>
+        <v>166998.3381661035</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8381.935660246432</v>
+        <v>8381.935660246485</v>
       </c>
       <c r="E3" t="n">
         <v>118895.2819258113</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>46127.08903606656</v>
+        <v>46127.08903606657</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68771.6687475675</v>
+        <v>68771.6687475676</v>
       </c>
       <c r="M3" t="n">
-        <v>19514.53999589758</v>
+        <v>19514.53999589753</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40159.91818518086</v>
+        <v>40159.91818518096</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>203925.9090598189</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140583</v>
+        <v>196979.4332140584</v>
       </c>
       <c r="E4" t="n">
         <v>149881.7318113426</v>
@@ -26430,10 +26430,10 @@
         <v>149881.7318113426</v>
       </c>
       <c r="G4" t="n">
-        <v>188927.0983995264</v>
+        <v>188927.0983995263</v>
       </c>
       <c r="H4" t="n">
-        <v>188927.0983995264</v>
+        <v>188927.0983995263</v>
       </c>
       <c r="I4" t="n">
         <v>188927.0983995263</v>
@@ -26451,13 +26451,13 @@
         <v>187302.9854962235</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962235</v>
+        <v>187302.9854962236</v>
       </c>
       <c r="O4" t="n">
-        <v>183523.6372490984</v>
+        <v>183523.6372490986</v>
       </c>
       <c r="P4" t="n">
-        <v>183523.6372490985</v>
+        <v>183523.6372490986</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="F5" t="n">
-        <v>47206.86677207318</v>
+        <v>47206.86677207317</v>
       </c>
       <c r="G5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="H5" t="n">
-        <v>52054.18958228953</v>
+        <v>52054.18958228952</v>
       </c>
       <c r="I5" t="n">
         <v>52054.18958228952</v>
@@ -26503,13 +26503,13 @@
         <v>52802.81689264637</v>
       </c>
       <c r="N5" t="n">
-        <v>52802.81689264637</v>
+        <v>52802.81689264638</v>
       </c>
       <c r="O5" t="n">
-        <v>52334.43432114058</v>
+        <v>52334.43432114059</v>
       </c>
       <c r="P5" t="n">
-        <v>52334.43432114058</v>
+        <v>52334.43432114059</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>179249.5733256192</v>
+        <v>179249.5733256191</v>
       </c>
       <c r="C6" t="n">
-        <v>346247.9114917224</v>
+        <v>346247.9114917226</v>
       </c>
       <c r="D6" t="n">
-        <v>343171.8448841292</v>
+        <v>343171.8448841288</v>
       </c>
       <c r="E6" t="n">
-        <v>243039.6235770561</v>
+        <v>242867.5118760904</v>
       </c>
       <c r="F6" t="n">
-        <v>361934.9055028678</v>
+        <v>361762.7938019011</v>
       </c>
       <c r="G6" t="n">
-        <v>326990.871377463</v>
+        <v>326990.8713774632</v>
       </c>
       <c r="H6" t="n">
-        <v>373117.9604135296</v>
+        <v>373117.9604135299</v>
       </c>
       <c r="I6" t="n">
         <v>373117.9604135297</v>
       </c>
       <c r="J6" t="n">
-        <v>152742.7814315481</v>
+        <v>152679.1277662243</v>
       </c>
       <c r="K6" t="n">
-        <v>364487.135336968</v>
+        <v>364423.4816716441</v>
       </c>
       <c r="L6" t="n">
-        <v>301065.0022488485</v>
+        <v>301065.0022488484</v>
       </c>
       <c r="M6" t="n">
-        <v>354478.9060105777</v>
+        <v>354478.9060105778</v>
       </c>
       <c r="N6" t="n">
-        <v>373993.4460064754</v>
+        <v>373993.4460064757</v>
       </c>
       <c r="O6" t="n">
-        <v>332759.451168654</v>
+        <v>332742.8205203058</v>
       </c>
       <c r="P6" t="n">
-        <v>372919.369353835</v>
+        <v>372902.7387054867</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>113.4301655082087</v>
@@ -26710,10 +26710,10 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26722,10 +26722,10 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O2" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="P2" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046696</v>
+        <v>498.3195369046694</v>
       </c>
       <c r="C4" t="n">
-        <v>498.3195369046696</v>
+        <v>498.3195369046694</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="F4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="G4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="H4" t="n">
-        <v>619.5872728283483</v>
+        <v>619.5872728283482</v>
       </c>
       <c r="I4" t="n">
         <v>619.5872728283482</v>
@@ -26814,22 +26814,22 @@
         <v>760.0261654497506</v>
       </c>
       <c r="K4" t="n">
-        <v>760.0261654497505</v>
+        <v>760.0261654497506</v>
       </c>
       <c r="L4" t="n">
-        <v>733.0425010894297</v>
+        <v>733.0425010894296</v>
       </c>
       <c r="M4" t="n">
+        <v>638.7584295260716</v>
+      </c>
+      <c r="N4" t="n">
+        <v>638.7584295260718</v>
+      </c>
+      <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
-      <c r="N4" t="n">
-        <v>638.7584295260717</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>638.7584295260716</v>
-      </c>
-      <c r="P4" t="n">
-        <v>638.7584295260717</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.77130421312555</v>
+        <v>55.77130421312552</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.96458593445938</v>
+        <v>85.96458593445951</v>
       </c>
       <c r="M2" t="n">
-        <v>24.39317499487197</v>
+        <v>24.39317499487191</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.19989773147608</v>
+        <v>50.1998977314762</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.3195369046696</v>
+        <v>498.3195369046694</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.98366436032074</v>
+        <v>26.98366436032092</v>
       </c>
       <c r="E4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.6588612950832</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.77130421312555</v>
+        <v>55.77130421312552</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.3195369046696</v>
+        <v>498.3195369046694</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.98366436032074</v>
+        <v>26.98366436032092</v>
       </c>
       <c r="M4" t="n">
-        <v>94.284071563358</v>
+        <v>94.28407156335788</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>79.43252370914983</v>
+        <v>71.8061654531175</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>17.29505749447343</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>182.1863798880501</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,13 +27540,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8199589381661</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27597,7 +27597,7 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W4" t="n">
-        <v>283.2948374677749</v>
+        <v>25.5553162596276</v>
       </c>
       <c r="X4" t="n">
         <v>228.939939463578</v>
@@ -27616,25 +27616,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>118.2206000979092</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>165.6191793262304</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>40.19256490148946</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,10 +27758,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>51.07274829882149</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.946480542891</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
         <v>167.9198098429365</v>
@@ -27783,13 +27783,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I7" t="n">
         <v>142.7610139533483</v>
@@ -27831,10 +27831,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>258.1279513971616</v>
+        <v>14.68413607146334</v>
       </c>
       <c r="W7" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>228.939939463578</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>264.0806145921396</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>10.85773765439512</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>27.43752473892766</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>24.68645909039981</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>271.7216854425707</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>14.6841360714634</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28087,31 +28087,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>9.338070422798211</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -28126,37 +28126,37 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082088</v>
+        <v>33.03633229190174</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082088</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y11" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>21.26645374118982</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28187,7 +28187,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28220,7 +28220,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>88.96491619802899</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="14">
@@ -28348,31 +28348,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.338070422798125</v>
+        <v>33.03633229190132</v>
       </c>
       <c r="P14" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28409,7 +28409,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>21.26645374118988</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -28421,10 +28421,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28585,19 +28585,19 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="K17" t="n">
-        <v>120.8806788490498</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>120.880678849049</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>88.96491619802941</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>88.96491619802899</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>170.4798614861059</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H19" t="n">
         <v>157.7789187685189</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>3.24931034027739</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28822,16 +28822,16 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J20" t="n">
-        <v>120.88067884905</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>31.14877520994398</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -28846,7 +28846,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="R20" t="n">
-        <v>171.0890268032919</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
         <v>171.0890268032919</v>
@@ -28883,7 +28883,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>21.26645374118988</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>88.96491619802892</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>171.0890268032919</v>
       </c>
       <c r="C22" t="n">
-        <v>171.0890268032919</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28989,10 +28989,10 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.08009337992201893</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.249310340277432</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29059,31 +29059,31 @@
         <v>171.0890268032919</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>171.0890268032919</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>120.8806788490492</v>
-      </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>31.14877520994393</v>
       </c>
       <c r="R23" t="n">
-        <v>171.0890268032919</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>171.0890268032919</v>
@@ -29129,13 +29129,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>88.96491619802933</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>21.26645374118976</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -29302,7 +29302,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>111.6986801837984</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
         <v>113.4301655082087</v>
@@ -29314,7 +29314,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082087</v>
+        <v>111.6986801837987</v>
       </c>
       <c r="Q26" t="n">
         <v>113.4301655082087</v>
@@ -29363,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>14.56549128550363</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550356</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>111.6986801837976</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082088</v>
+        <v>111.6986801837986</v>
       </c>
       <c r="S29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550356</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="K32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L32" t="n">
-        <v>141.7358901475849</v>
+        <v>61.88025498773806</v>
       </c>
       <c r="M32" t="n">
-        <v>141.7358901475849</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="O32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Q32" t="n">
-        <v>113.8842414962186</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="33">
@@ -29834,7 +29834,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.56549128550341</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="C34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="D34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="E34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="F34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="G34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="H34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="I34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="J34" t="n">
-        <v>141.7358901475849</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>64.27378155889433</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>141.735890147585</v>
       </c>
       <c r="P34" t="n">
-        <v>20.1465255441279</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.7358901475849</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="S34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="T34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="U34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="V34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="W34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="X34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.7358901475849</v>
+        <v>141.735890147585</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>116.9787331327009</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>40.5815716293495</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
+      <c r="P35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550325</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>46.68561682995332</v>
+        <v>45.56176619902598</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30247,7 +30247,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>116.9787331327016</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30259,16 +30259,16 @@
         <v>166.1290651424569</v>
       </c>
       <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>40.58157162934955</v>
-      </c>
       <c r="R38" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>166.1290651424569</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550327</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>152.0796990554076</v>
       </c>
       <c r="G40" t="n">
         <v>166.1290651424569</v>
@@ -30399,7 +30399,7 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7610139533483</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="J40" t="n">
         <v>59.456666199969</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>22.19371500991728</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.73508319210976</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
-        <v>166.1290651424569</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S40" t="n">
         <v>166.1290651424569</v>
@@ -30457,34 +30457,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="E41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="F41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="G41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="I41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="J41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="K41" t="n">
-        <v>57.2957910742974</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -30493,40 +30493,40 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>160.5576586608074</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>128.1215460959998</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="R41" t="n">
-        <v>160.5576586608074</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y41" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30627,10 +30627,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>157.764227656213</v>
       </c>
       <c r="G43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -30657,34 +30657,34 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>103.5309028380083</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>134.8744915391219</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="44">
@@ -30694,37 +30694,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="E44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="F44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="G44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="I44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="J44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="K44" t="n">
-        <v>57.2957910742974</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -30736,34 +30736,34 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.1215460959998</v>
       </c>
       <c r="Q44" t="n">
-        <v>160.5576586608074</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>160.5576586608074</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="C46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="H46" t="n">
         <v>157.7789187685189</v>
@@ -30885,13 +30885,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.5309028380083</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>103.5309028380065</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="T46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="U46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="V46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="W46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="X46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.5576586608074</v>
+        <v>160.5576586608076</v>
       </c>
     </row>
   </sheetData>
@@ -34711,7 +34711,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O2" t="n">
-        <v>296.6271453201145</v>
+        <v>296.6271453201138</v>
       </c>
       <c r="P2" t="n">
         <v>230.4615115717709</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>489.93268031336</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>498.3195369046696</v>
+        <v>498.3195369046694</v>
       </c>
       <c r="O3" t="n">
-        <v>322.7033791485302</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>257.1092104015411</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>196.3429054913136</v>
       </c>
       <c r="Q5" t="n">
-        <v>61.26750875442929</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>231.8086389496855</v>
@@ -35024,13 +35024,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.3195369046696</v>
+        <v>21.21144806094021</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P6" t="n">
-        <v>163.3380965368188</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
         <v>159.3652826117113</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>369.5170153233491</v>
@@ -35267,10 +35267,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>87.71916873984496</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>82.0638727185615</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
@@ -35428,10 +35428,10 @@
         <v>343.8916770799797</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430946</v>
+        <v>128.4224471267876</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910358</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,13 +35501,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O12" t="n">
-        <v>396.1615664486372</v>
+        <v>320.2515318475499</v>
       </c>
       <c r="P12" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.45524801062412</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K13" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L13" t="n">
         <v>215.0534780337234</v>
@@ -35583,10 +35583,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P13" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>72.72580229576329</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>397.2112790435232</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O14" t="n">
-        <v>317.4235092842466</v>
+        <v>341.1217711533498</v>
       </c>
       <c r="P14" t="n">
-        <v>343.8916770799797</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q14" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910356</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
-        <v>293.6069807222626</v>
+        <v>369.5170153233491</v>
       </c>
       <c r="M15" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N15" t="n">
-        <v>516.4299455789112</v>
+        <v>440.5199109778241</v>
       </c>
       <c r="O15" t="n">
         <v>396.1615664486372</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35823,7 +35823,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,19 +35881,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>243.8148290990552</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K17" t="n">
-        <v>363.4467112175172</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>503.0335664123983</v>
       </c>
       <c r="O17" t="n">
         <v>308.0854388614484</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.45524801062412</v>
+        <v>83.45524801062366</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36030,7 +36030,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.249310340277435</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>63.604529018321</v>
+        <v>66.85383935859839</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>193.6064811448133</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5660323684674</v>
+        <v>273.7148075784114</v>
       </c>
       <c r="L20" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
-        <v>397.2112790435232</v>
+        <v>568.3003058468151</v>
       </c>
       <c r="N20" t="n">
         <v>382.1528875633492</v>
@@ -36142,7 +36142,7 @@
         <v>266.4751416381778</v>
       </c>
       <c r="R20" t="n">
-        <v>81.35712316418676</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222622</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.45524801062412</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36255,7 +36255,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.169216960355442</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M22" t="n">
-        <v>119.2654531047722</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>122.8678373600758</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>243.8148290990552</v>
       </c>
       <c r="K23" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L23" t="n">
-        <v>522.4883935557629</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M23" t="n">
         <v>397.2112790435232</v>
@@ -36370,16 +36370,16 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>428.9661177104976</v>
+        <v>479.1744656647404</v>
       </c>
       <c r="P23" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>126.5348900448298</v>
       </c>
       <c r="R23" t="n">
-        <v>81.35712316418676</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>216.7613786244633</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L24" t="n">
-        <v>369.5170153233491</v>
+        <v>293.6069807222622</v>
       </c>
       <c r="M24" t="n">
         <v>489.93268031336</v>
@@ -36595,10 +36595,10 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
-        <v>463.0980469362694</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M26" t="n">
         <v>510.6414445517319</v>
@@ -36610,13 +36610,13 @@
         <v>421.5156043696572</v>
       </c>
       <c r="P26" t="n">
-        <v>343.8916770799797</v>
+        <v>342.1601917555696</v>
       </c>
       <c r="Q26" t="n">
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910356</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823975</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K28" t="n">
         <v>147.373789492697</v>
@@ -36771,7 +36771,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536089</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>184.4244824795609</v>
+        <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
         <v>464.8295322606797</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910358</v>
+        <v>21.96677654469338</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L31" t="n">
         <v>215.0534780337234</v>
@@ -37005,10 +37005,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>72.72580229576329</v>
+        <v>214.4616924433483</v>
       </c>
       <c r="K32" t="n">
-        <v>384.3019225160524</v>
+        <v>384.3019225160525</v>
       </c>
       <c r="L32" t="n">
-        <v>493.1352569000559</v>
+        <v>413.279621740209</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9471691911081</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N32" t="n">
-        <v>523.8887777109342</v>
+        <v>523.8887777109343</v>
       </c>
       <c r="O32" t="n">
         <v>449.8213290090334</v>
       </c>
       <c r="P32" t="n">
-        <v>230.4615115717709</v>
+        <v>372.197401719356</v>
       </c>
       <c r="Q32" t="n">
-        <v>209.2703563311045</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.00398650847984</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>82.27922394761595</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>175.6795141320732</v>
+        <v>175.6795141320733</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
@@ -37236,16 +37236,16 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N34" t="n">
-        <v>119.6185270197983</v>
+        <v>183.8923085786927</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>241.19411893111</v>
       </c>
       <c r="P34" t="n">
-        <v>83.7510545624489</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.5839222147371</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>283.1476039978169</v>
+        <v>359.5447655011683</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
@@ -37315,19 +37315,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N35" t="n">
-        <v>548.2819527058061</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>230.4615115717709</v>
+        <v>396.5905767142278</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
-        <v>396.161566448637</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
         <v>305.147393207775</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M37" t="n">
-        <v>165.8709765548035</v>
+        <v>164.7471259238762</v>
       </c>
       <c r="N37" t="n">
         <v>119.6185270197983</v>
@@ -37543,7 +37543,7 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5660323684674</v>
+        <v>359.544765501169</v>
       </c>
       <c r="L38" t="n">
         <v>351.3993667524709</v>
@@ -37555,16 +37555,16 @@
         <v>548.2819527058061</v>
       </c>
       <c r="O38" t="n">
-        <v>474.2145040039053</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P38" t="n">
         <v>230.4615115717709</v>
       </c>
       <c r="Q38" t="n">
-        <v>135.9676864642354</v>
+        <v>261.5151799773428</v>
       </c>
       <c r="R38" t="n">
-        <v>76.39716150335173</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>60.86277427586489</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
@@ -37686,7 +37686,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>23.36805118910868</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,16 +37713,16 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45822878352493</v>
+        <v>121.6519437934422</v>
       </c>
       <c r="P40" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.5831152592619</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.10250157069135</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.2834609565707</v>
+        <v>233.2834609565709</v>
       </c>
       <c r="K41" t="n">
-        <v>299.8618234427648</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L41" t="n">
         <v>351.3993667524709</v>
@@ -37789,19 +37789,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N41" t="n">
-        <v>542.7105462241567</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
-        <v>230.4615115717709</v>
+        <v>358.5830576677707</v>
       </c>
       <c r="Q41" t="n">
-        <v>95.38611483488586</v>
+        <v>255.9437734956935</v>
       </c>
       <c r="R41" t="n">
-        <v>70.82575502170226</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L42" t="n">
         <v>369.5170153233491</v>
@@ -37923,7 +37923,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>6.808379231732345</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -37953,10 +37953,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P43" t="n">
-        <v>167.1354318563293</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>96.72252360627408</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.2834609565707</v>
+        <v>233.2834609565709</v>
       </c>
       <c r="K44" t="n">
-        <v>299.8618234427648</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>351.3993667524709</v>
+        <v>511.9570254132785</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
@@ -38032,13 +38032,13 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.5830576677707</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.9437734956933</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R44" t="n">
-        <v>70.82575502170226</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>222.7162625628586</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>202.9891316215314</v>
       </c>
       <c r="P46" t="n">
         <v>63.604529018321</v>
